--- a/수정본_요구사항 정의서_프로젝트2.xlsx
+++ b/수정본_요구사항 정의서_프로젝트2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezen-033\Desktop\ezen2\TripMate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-07\Desktop\TripMate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="139">
   <si>
     <t>HT</t>
   </si>
@@ -398,9 +398,6 @@
     <t>화면 구현 완료</t>
   </si>
   <si>
-    <t>고객센터 카테고리로 이동</t>
-  </si>
-  <si>
     <t>SH – P – 012</t>
   </si>
   <si>
@@ -510,6 +507,14 @@
   </si>
   <si>
     <t>화면 구현 중</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tt</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객센터 카테고리로 이동.</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -829,7 +834,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -971,6 +976,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1189,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1408,9 +1416,11 @@
         <v>43850</v>
       </c>
       <c r="H6" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="I6" s="16"/>
       <c r="J6" s="15">
         <v>1</v>
       </c>
@@ -1508,7 +1518,7 @@
       <c r="H8" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="12"/>
+      <c r="I8" s="54"/>
       <c r="J8" s="24">
         <v>1</v>
       </c>
@@ -2173,16 +2183,16 @@
         <v>102</v>
       </c>
       <c r="I22" s="40" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="J22" s="24">
         <v>2</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -2205,13 +2215,13 @@
     <row r="23" spans="1:29" ht="18.75" customHeight="1">
       <c r="A23" s="18"/>
       <c r="B23" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="D23" s="20" t="s">
         <v>106</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>107</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="22" t="s">
@@ -2228,10 +2238,10 @@
         <v>2</v>
       </c>
       <c r="K23" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="L23" s="15" t="s">
         <v>108</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>109</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -2255,10 +2265,10 @@
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
       <c r="C24" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>111</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="22" t="s">
@@ -2275,10 +2285,10 @@
         <v>2</v>
       </c>
       <c r="K24" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="L24" s="15" t="s">
         <v>112</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>113</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -2300,16 +2310,16 @@
     </row>
     <row r="25" spans="1:29" ht="18.75" customHeight="1">
       <c r="A25" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="C25" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="D25" s="12" t="s">
         <v>116</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>117</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="22" t="s">
@@ -2326,7 +2336,7 @@
         <v>3</v>
       </c>
       <c r="K25" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L25" s="15"/>
       <c r="M25" s="1"/>
@@ -2350,13 +2360,13 @@
     <row r="26" spans="1:29" ht="18.75" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="D26" s="20" t="s">
         <v>120</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>121</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="22" t="s">
@@ -2373,7 +2383,7 @@
         <v>3</v>
       </c>
       <c r="K26" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L26" s="24"/>
       <c r="M26" s="1"/>
@@ -2397,13 +2407,13 @@
     <row r="27" spans="1:29" ht="45" customHeight="1">
       <c r="A27" s="18"/>
       <c r="B27" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="D27" s="21" t="s">
         <v>124</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>125</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="22" t="s">
@@ -2420,7 +2430,7 @@
         <v>3</v>
       </c>
       <c r="K27" s="41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L27" s="12"/>
       <c r="M27" s="1"/>
@@ -2444,13 +2454,13 @@
     <row r="28" spans="1:29" ht="33.75" customHeight="1">
       <c r="A28" s="18"/>
       <c r="B28" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="D28" s="42" t="s">
         <v>128</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>129</v>
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="22" t="s">
@@ -2467,7 +2477,7 @@
         <v>3</v>
       </c>
       <c r="K28" s="41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L28" s="12"/>
       <c r="M28" s="1"/>
@@ -2491,13 +2501,13 @@
     <row r="29" spans="1:29" ht="15.75" customHeight="1">
       <c r="A29" s="18"/>
       <c r="B29" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="D29" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>133</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" s="22" t="s">
@@ -2514,7 +2524,7 @@
         <v>3</v>
       </c>
       <c r="K29" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L29" s="12"/>
       <c r="M29" s="1"/>
@@ -2538,13 +2548,13 @@
     <row r="30" spans="1:29" ht="18.75" customHeight="1">
       <c r="A30" s="27"/>
       <c r="B30" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>136</v>
-      </c>
       <c r="D30" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="22" t="s">

--- a/수정본_요구사항 정의서_프로젝트2.xlsx
+++ b/수정본_요구사항 정의서_프로젝트2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\508-10\Desktop\TripMate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8115"/>
   </bookViews>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="147">
   <si>
     <t>HT</t>
   </si>
@@ -126,9 +131,6 @@
     <t>웹에 등록된 ID, PW 입력을 통한 일반 로그인, 구글, 페이스북, 네이버 소셜 회원 가입</t>
   </si>
   <si>
-    <t>화면 구현 중</t>
-  </si>
-  <si>
     <t>HT – P - 004</t>
   </si>
   <si>
@@ -177,10 +179,6 @@
   <si>
     <t>가이드 로그인 시 접근 가능
 사진, 설명, 가이드 경로 등을 입력하여 본인의 가이드 여행 상품 등록</t>
-  </si>
-  <si>
-    <t>내용 타이틀 세로
-가운데 정렬 X</t>
   </si>
   <si>
     <t>KB – P - 007</t>
@@ -507,6 +505,25 @@
   </si>
   <si>
     <t>형준</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 구현 중</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 상단바 통일하는 중</t>
+  </si>
+  <si>
+    <t>메인 상단바 통일하는 중</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 구현 중</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 구현 중</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -961,6 +978,12 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -974,12 +997,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1199,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1252,17 +1269,17 @@
     <row r="2" spans="1:29" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="47"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1285,15 +1302,15 @@
     <row r="3" spans="1:29" ht="19.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1403,25 +1420,25 @@
       <c r="A6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="52"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="12" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G6" s="14">
         <v>43850</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I6" s="44" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J6" s="15">
         <v>1</v>
@@ -1463,29 +1480,29 @@
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G7" s="22">
         <v>43852</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J7" s="23">
         <v>2</v>
       </c>
       <c r="K7" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="15" t="s">
         <v>33</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>34</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -1507,36 +1524,36 @@
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>36</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>37</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G8" s="22">
         <v>43850</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J8" s="23">
         <v>1</v>
       </c>
       <c r="K8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>39</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -1558,36 +1575,36 @@
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>41</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>42</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G9" s="22">
         <v>43852</v>
       </c>
       <c r="H9" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>138</v>
       </c>
       <c r="J9" s="23">
         <v>2</v>
       </c>
       <c r="K9" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="15" t="s">
         <v>43</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>44</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1608,35 +1625,35 @@
     <row r="10" spans="1:29" ht="24">
       <c r="A10" s="17"/>
       <c r="B10" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="20" t="s">
         <v>47</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>48</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G10" s="22">
         <v>43850</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="J10" s="23">
         <v>1</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1660,30 +1677,32 @@
       <c r="A11" s="17"/>
       <c r="B11" s="26"/>
       <c r="C11" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G11" s="22">
         <v>43850</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="12"/>
+        <v>145</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>143</v>
+      </c>
       <c r="J11" s="23">
         <v>1</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1706,35 +1725,35 @@
     <row r="12" spans="1:29" ht="24">
       <c r="A12" s="17"/>
       <c r="B12" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>56</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>58</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G12" s="22">
         <v>43852</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J12" s="23">
         <v>2</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1758,32 +1777,32 @@
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G13" s="22">
         <v>43850</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J13" s="23">
         <v>1</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1807,32 +1826,32 @@
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G14" s="22">
         <v>43852</v>
       </c>
       <c r="H14" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>138</v>
       </c>
       <c r="J14" s="23">
         <v>2</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1856,14 +1875,14 @@
       <c r="A15" s="17"/>
       <c r="B15" s="26"/>
       <c r="C15" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G15" s="22">
         <v>43852</v>
@@ -1898,35 +1917,35 @@
     <row r="16" spans="1:29" ht="18.75" customHeight="1">
       <c r="A16" s="17"/>
       <c r="B16" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="E16" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>74</v>
-      </c>
       <c r="F16" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G16" s="22">
         <v>43850</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="23">
         <v>2</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1950,30 +1969,32 @@
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E17" s="26"/>
-      <c r="F17" s="55" t="s">
-        <v>142</v>
+      <c r="F17" s="46" t="s">
+        <v>140</v>
       </c>
       <c r="G17" s="29">
         <v>43852</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="30"/>
+        <v>142</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>144</v>
+      </c>
       <c r="J17" s="23">
         <v>1</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1997,10 +2018,10 @@
       <c r="A18" s="17"/>
       <c r="B18" s="26"/>
       <c r="C18" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="32"/>
@@ -2035,17 +2056,17 @@
     <row r="19" spans="1:29" ht="84">
       <c r="A19" s="17"/>
       <c r="B19" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E19" s="31"/>
-      <c r="F19" s="54" t="s">
-        <v>140</v>
+      <c r="F19" s="45" t="s">
+        <v>138</v>
       </c>
       <c r="G19" s="33">
         <v>43850</v>
@@ -2054,16 +2075,16 @@
         <v>26</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J19" s="23">
         <v>1</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -2087,14 +2108,14 @@
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E20" s="31"/>
-      <c r="F20" s="54" t="s">
-        <v>140</v>
+      <c r="F20" s="45" t="s">
+        <v>138</v>
       </c>
       <c r="G20" s="33">
         <v>43852</v>
@@ -2107,10 +2128,10 @@
         <v>2</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -2132,16 +2153,16 @@
     </row>
     <row r="21" spans="1:29" ht="24">
       <c r="A21" s="17"/>
-      <c r="B21" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="52"/>
+      <c r="B21" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="54"/>
       <c r="D21" s="35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E21" s="31"/>
-      <c r="F21" s="54" t="s">
-        <v>140</v>
+      <c r="F21" s="45" t="s">
+        <v>138</v>
       </c>
       <c r="G21" s="33">
         <v>43852</v>
@@ -2154,10 +2175,10 @@
         <v>1</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -2181,32 +2202,32 @@
       <c r="A22" s="17"/>
       <c r="B22" s="36"/>
       <c r="C22" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G22" s="22">
         <v>43850</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J22" s="23">
         <v>2</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -2229,17 +2250,17 @@
     <row r="23" spans="1:29" ht="18.75" customHeight="1">
       <c r="A23" s="17"/>
       <c r="B23" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="19" t="s">
         <v>100</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>102</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G23" s="22">
         <v>43850</v>
@@ -2252,10 +2273,10 @@
         <v>2</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -2279,14 +2300,14 @@
       <c r="A24" s="26"/>
       <c r="B24" s="26"/>
       <c r="C24" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G24" s="22">
         <v>43850</v>
@@ -2299,10 +2320,10 @@
         <v>2</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -2324,35 +2345,35 @@
     </row>
     <row r="25" spans="1:29" ht="18.75" customHeight="1">
       <c r="A25" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="D25" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>112</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G25" s="22">
         <v>43852</v>
       </c>
       <c r="H25" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I25" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>138</v>
       </c>
       <c r="J25" s="23">
         <v>3</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L25" s="15"/>
       <c r="M25" s="1"/>
@@ -2376,17 +2397,17 @@
     <row r="26" spans="1:29" ht="18.75" customHeight="1">
       <c r="A26" s="17"/>
       <c r="B26" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>116</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G26" s="22">
         <v>43852</v>
@@ -2399,7 +2420,7 @@
         <v>3</v>
       </c>
       <c r="K26" s="23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L26" s="23"/>
       <c r="M26" s="1"/>
@@ -2423,17 +2444,17 @@
     <row r="27" spans="1:29" ht="45" customHeight="1">
       <c r="A27" s="17"/>
       <c r="B27" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="20" t="s">
         <v>118</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>120</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G27" s="22">
         <v>43852</v>
@@ -2446,7 +2467,7 @@
         <v>3</v>
       </c>
       <c r="K27" s="39" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L27" s="12"/>
       <c r="M27" s="1"/>
@@ -2470,17 +2491,17 @@
     <row r="28" spans="1:29" ht="33.75" customHeight="1">
       <c r="A28" s="17"/>
       <c r="B28" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="40" t="s">
         <v>122</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>124</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G28" s="22">
         <v>43852</v>
@@ -2493,7 +2514,7 @@
         <v>3</v>
       </c>
       <c r="K28" s="39" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L28" s="12"/>
       <c r="M28" s="1"/>
@@ -2517,17 +2538,17 @@
     <row r="29" spans="1:29" ht="15.75" customHeight="1">
       <c r="A29" s="17"/>
       <c r="B29" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>126</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>128</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G29" s="22">
         <v>43852</v>
@@ -2540,7 +2561,7 @@
         <v>3</v>
       </c>
       <c r="K29" s="39" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L29" s="12"/>
       <c r="M29" s="1"/>
@@ -2564,17 +2585,17 @@
     <row r="30" spans="1:29" ht="18.75" customHeight="1">
       <c r="A30" s="26"/>
       <c r="B30" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G30" s="22">
         <v>43852</v>
@@ -2728,7 +2749,7 @@
       <c r="A35" s="1"/>
       <c r="B35" s="3"/>
       <c r="F35" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="3" t="s">
@@ -2760,7 +2781,7 @@
       <c r="A36" s="1"/>
       <c r="B36" s="3"/>
       <c r="F36" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="3" t="s">
@@ -2792,7 +2813,7 @@
       <c r="A37" s="1"/>
       <c r="B37" s="3"/>
       <c r="F37" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="3" t="s">
@@ -2825,7 +2846,7 @@
       <c r="B38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="3" t="s">
